--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Дата</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Октябрь 2022 г.</t>
+  </si>
+  <si>
+    <t>Ноябрь 2022 г.</t>
   </si>
 </sst>
 </file>
@@ -865,10 +868,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2317,6 +2320,17 @@
         <v>16227.802</v>
       </c>
     </row>
+    <row r="132" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="7">
+        <v>20370</v>
+      </c>
+      <c r="C132" s="9">
+        <v>2469.3000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>20370</v>
+        <v>37335</v>
       </c>
       <c r="C132" s="9">
-        <v>2469.3000000000002</v>
+        <v>3781.1</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -871,7 +871,7 @@
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>37335</v>
+        <v>61866.2</v>
       </c>
       <c r="C132" s="9">
-        <v>3781.1</v>
+        <v>4661.3</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -871,7 +871,7 @@
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>61866.2</v>
+        <v>79821.100000000006</v>
       </c>
       <c r="C132" s="9">
-        <v>4661.3</v>
+        <v>6699.9</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>79821.100000000006</v>
+        <v>92699.4</v>
       </c>
       <c r="C132" s="9">
-        <v>6699.9</v>
+        <v>7542.4</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>92699.4</v>
+        <v>110838.1</v>
       </c>
       <c r="C132" s="9">
-        <v>7542.4</v>
+        <v>9599.2999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>110838.1</v>
+        <v>131252.79999999999</v>
       </c>
       <c r="C132" s="9">
-        <v>9599.2999999999993</v>
+        <v>11910</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>131252.79999999999</v>
+        <v>136618.6</v>
       </c>
       <c r="C132" s="9">
-        <v>11910</v>
+        <v>12138.5</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>136618.6</v>
+        <v>141434.5</v>
       </c>
       <c r="C132" s="9">
-        <v>12138.5</v>
+        <v>12835.602000000001</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2325,10 +2325,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="7">
-        <v>141434.5</v>
+        <v>162054</v>
       </c>
       <c r="C132" s="9">
-        <v>12835.602000000001</v>
+        <v>13807.002</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Дата</t>
   </si>
@@ -421,15 +421,19 @@
   </si>
   <si>
     <t>Ноябрь 2022 г.</t>
+  </si>
+  <si>
+    <t>Декабрь 2022 г.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -530,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -557,6 +561,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -868,10 +875,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2331,6 +2338,17 @@
         <v>13807.002</v>
       </c>
     </row>
+    <row r="133" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="7">
+        <v>17581.2</v>
+      </c>
+      <c r="C133" s="10">
+        <v>683.40099999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -430,10 +430,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -534,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -561,9 +560,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2343,10 +2339,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="7">
-        <v>17581.2</v>
-      </c>
-      <c r="C133" s="10">
-        <v>683.40099999999995</v>
+        <v>25434.7</v>
+      </c>
+      <c r="C133" s="9">
+        <v>1239.001</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2339,10 +2339,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="7">
-        <v>25434.7</v>
+        <v>30198.2</v>
       </c>
       <c r="C133" s="9">
-        <v>1239.001</v>
+        <v>1538.201</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2339,10 +2339,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="7">
-        <v>30198.2</v>
+        <v>39347.599999999999</v>
       </c>
       <c r="C133" s="9">
-        <v>1538.201</v>
+        <v>2517.0010000000002</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2339,10 +2339,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="7">
-        <v>39347.599999999999</v>
+        <v>84647.5</v>
       </c>
       <c r="C133" s="9">
-        <v>2517.0010000000002</v>
+        <v>6276.2</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2339,10 +2339,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="7">
-        <v>84647.5</v>
+        <v>134480.1</v>
       </c>
       <c r="C133" s="9">
-        <v>6276.2</v>
+        <v>10416.601000000001</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Дата</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Декабрь 2022 г.</t>
+  </si>
+  <si>
+    <t>Январь 2023 г.</t>
   </si>
 </sst>
 </file>
@@ -871,10 +874,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2339,10 +2342,21 @@
         <v>134</v>
       </c>
       <c r="B133" s="7">
-        <v>134480.1</v>
+        <v>151885.5</v>
       </c>
       <c r="C133" s="9">
-        <v>10416.601000000001</v>
+        <v>11946.401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="7">
+        <v>66284.399999999994</v>
+      </c>
+      <c r="C134" s="9">
+        <v>7809.7</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -877,7 +877,7 @@
   <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2353,10 +2353,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="7">
-        <v>66284.399999999994</v>
+        <v>90675.7</v>
       </c>
       <c r="C134" s="9">
-        <v>7809.7</v>
+        <v>10400.299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2353,10 +2353,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="7">
-        <v>90675.7</v>
+        <v>133417.1</v>
       </c>
       <c r="C134" s="9">
-        <v>10400.299999999999</v>
+        <v>12424.3</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Дата</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>Январь 2023 г.</t>
+  </si>
+  <si>
+    <t>Февраль 2023 г.</t>
   </si>
 </sst>
 </file>
@@ -874,10 +877,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2359,6 +2362,17 @@
         <v>12424.3</v>
       </c>
     </row>
+    <row r="135" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="7">
+        <v>45698.175000000003</v>
+      </c>
+      <c r="C135" s="9">
+        <v>5106.4030000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -2367,10 +2367,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="7">
-        <v>45698.175000000003</v>
+        <v>135551.375</v>
       </c>
       <c r="C135" s="9">
-        <v>5106.4030000000002</v>
+        <v>13375.003000000001</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Дата</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Февраль 2023 г.</t>
+  </si>
+  <si>
+    <t>Март 2023 г.</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2373,6 +2376,17 @@
         <v>13375.003000000001</v>
       </c>
     </row>
+    <row r="136" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="7">
+        <v>168962.9</v>
+      </c>
+      <c r="C136" s="9">
+        <v>18136.600999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Дата</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Март 2023 г.</t>
+  </si>
+  <si>
+    <t>Апрель 2023 г.</t>
   </si>
 </sst>
 </file>
@@ -880,10 +883,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2387,6 +2390,17 @@
         <v>18136.600999999999</v>
       </c>
     </row>
+    <row r="137" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="7">
+        <v>133701.79999999999</v>
+      </c>
+      <c r="C137" s="9">
+        <v>13789.102000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Дата</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Апрель 2023 г.</t>
+  </si>
+  <si>
+    <t>Май 2023 г.</t>
   </si>
 </sst>
 </file>
@@ -883,10 +886,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2395,10 +2398,21 @@
         <v>138</v>
       </c>
       <c r="B137" s="7">
-        <v>133701.79999999999</v>
+        <v>149767.79999999999</v>
       </c>
       <c r="C137" s="9">
-        <v>13789.102000000001</v>
+        <v>14740.002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="7">
+        <v>63297.4</v>
+      </c>
+      <c r="C138" s="9">
+        <v>7371.4</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Дата</t>
   </si>
@@ -439,6 +439,15 @@
   </si>
   <si>
     <t>Май 2023 г.</t>
+  </si>
+  <si>
+    <t>Июнь 2023 г.</t>
+  </si>
+  <si>
+    <t>Июль 2023 г.</t>
+  </si>
+  <si>
+    <t>Август 2023 г.</t>
   </si>
 </sst>
 </file>
@@ -886,10 +895,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2409,10 +2418,43 @@
         <v>139</v>
       </c>
       <c r="B138" s="7">
-        <v>63297.4</v>
+        <v>98089.600000000006</v>
       </c>
       <c r="C138" s="9">
-        <v>7371.4</v>
+        <v>12266.401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="7">
+        <v>63929.2</v>
+      </c>
+      <c r="C139" s="9">
+        <v>7567.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="7">
+        <v>40249.800000000003</v>
+      </c>
+      <c r="C140" s="9">
+        <v>4525.5990000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="7">
+        <v>29591.200000000001</v>
+      </c>
+      <c r="C141" s="9">
+        <v>2009.4</v>
       </c>
     </row>
   </sheetData>
